--- a/report_binary_baseline_2000.xlsx
+++ b/report_binary_baseline_2000.xlsx
@@ -475,25 +475,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1243.999994667374</v>
+        <v>1243.999994667382</v>
       </c>
       <c r="C2" t="n">
-        <v>1243.99999960277</v>
+        <v>1243.999999602868</v>
       </c>
       <c r="D2" t="n">
-        <v>1243.999996970995</v>
+        <v>1243.999997921323</v>
       </c>
       <c r="E2" t="n">
-        <v>1244.000310720223</v>
+        <v>1244.00031072979</v>
       </c>
       <c r="F2" t="n">
-        <v>1243.999528759922</v>
+        <v>1243.999528759889</v>
       </c>
       <c r="G2" t="n">
-        <v>1244.000037594136</v>
+        <v>1243.999975377219</v>
       </c>
       <c r="H2" t="n">
-        <v>1244.000108638812</v>
+        <v>1244.000015707665</v>
       </c>
     </row>
     <row r="3">
@@ -501,25 +501,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1234.999994667604</v>
+        <v>1234.999994667611</v>
       </c>
       <c r="C3" t="n">
-        <v>1234.999999593347</v>
+        <v>1234.999999593445</v>
       </c>
       <c r="D3" t="n">
-        <v>1234.999996971123</v>
+        <v>1234.999997921306</v>
       </c>
       <c r="E3" t="n">
-        <v>1235.000310705414</v>
+        <v>1235.000310714972</v>
       </c>
       <c r="F3" t="n">
-        <v>1234.999528706807</v>
+        <v>1234.999528706773</v>
       </c>
       <c r="G3" t="n">
-        <v>1235.000037594232</v>
+        <v>1234.999975377264</v>
       </c>
       <c r="H3" t="n">
-        <v>1235.000108640768</v>
+        <v>1235.000015704213</v>
       </c>
     </row>
     <row r="4">
@@ -527,25 +527,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>880.999994667454</v>
+        <v>880.9999946674607</v>
       </c>
       <c r="C4" t="n">
-        <v>880.9999996188907</v>
+        <v>880.9999996189892</v>
       </c>
       <c r="D4" t="n">
-        <v>880.9999969707857</v>
+        <v>880.9999979213536</v>
       </c>
       <c r="E4" t="n">
-        <v>881.000310744909</v>
+        <v>881.0003107544871</v>
       </c>
       <c r="F4" t="n">
-        <v>880.9995288484491</v>
+        <v>880.9995288484151</v>
       </c>
       <c r="G4" t="n">
-        <v>881.0000375939763</v>
+        <v>880.999975377144</v>
       </c>
       <c r="H4" t="n">
-        <v>881.0001086355227</v>
+        <v>881.0000157134655</v>
       </c>
     </row>
     <row r="5">
@@ -553,25 +553,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>684.6999946679094</v>
+        <v>684.6999946679159</v>
       </c>
       <c r="C5" t="n">
-        <v>684.6999995996094</v>
+        <v>684.6999995997061</v>
       </c>
       <c r="D5" t="n">
-        <v>684.6999969710391</v>
+        <v>684.6999979213173</v>
       </c>
       <c r="E5" t="n">
-        <v>684.7003107152871</v>
+        <v>684.7003107248504</v>
       </c>
       <c r="F5" t="n">
-        <v>684.699528742218</v>
+        <v>684.6995287421844</v>
       </c>
       <c r="G5" t="n">
-        <v>684.7000375941684</v>
+        <v>684.6999753772333</v>
       </c>
       <c r="H5" t="n">
-        <v>684.700108639466</v>
+        <v>684.7000157065117</v>
       </c>
     </row>
     <row r="6">
@@ -579,25 +579,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620.1999946679849</v>
+        <v>620.1999946679923</v>
       </c>
       <c r="C6" t="n">
-        <v>620.1999995964679</v>
+        <v>620.1999995965657</v>
       </c>
       <c r="D6" t="n">
-        <v>620.1999969710823</v>
+        <v>620.1999979213133</v>
       </c>
       <c r="E6" t="n">
-        <v>620.2003107103512</v>
+        <v>620.2003107199112</v>
       </c>
       <c r="F6" t="n">
-        <v>620.1995287245127</v>
+        <v>620.1995287244789</v>
       </c>
       <c r="G6" t="n">
-        <v>620.2000375942001</v>
+        <v>620.1999753772484</v>
       </c>
       <c r="H6" t="n">
-        <v>620.2001086401174</v>
+        <v>620.200015705361</v>
       </c>
     </row>
     <row r="7">
@@ -605,25 +605,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>611.9999946667858</v>
+        <v>611.9999946667934</v>
       </c>
       <c r="C7" t="n">
-        <v>611.9999999217948</v>
+        <v>611.9999999219034</v>
       </c>
       <c r="D7" t="n">
-        <v>611.9999969706575</v>
+        <v>611.9999979213706</v>
       </c>
       <c r="E7" t="n">
-        <v>612.0003107597211</v>
+        <v>612.0003107693083</v>
       </c>
       <c r="F7" t="n">
-        <v>611.9995289015644</v>
+        <v>611.9995289015305</v>
       </c>
       <c r="G7" t="n">
-        <v>612.0000375938798</v>
+        <v>611.9999753770996</v>
       </c>
       <c r="H7" t="n">
-        <v>612.0001086335318</v>
+        <v>612.0000157169694</v>
       </c>
     </row>
     <row r="8">
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>372.199994678698</v>
+        <v>372.1999946787054</v>
       </c>
       <c r="C8" t="n">
-        <v>372.1999999978144</v>
+        <v>372.1999999979103</v>
       </c>
       <c r="D8" t="n">
-        <v>372.1999969772155</v>
+        <v>372.1999979204685</v>
       </c>
       <c r="E8" t="n">
-        <v>372.2003099966561</v>
+        <v>372.2003100058331</v>
       </c>
       <c r="F8" t="n">
-        <v>372.1995261572474</v>
+        <v>372.1995261572141</v>
       </c>
       <c r="G8" t="n">
-        <v>372.2000375988441</v>
+        <v>372.1999753793981</v>
       </c>
       <c r="H8" t="n">
-        <v>372.20010872103</v>
+        <v>372.2000155588127</v>
       </c>
     </row>
     <row r="9">
@@ -657,25 +657,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>372.199994678698</v>
+        <v>372.1999946787054</v>
       </c>
       <c r="C9" t="n">
-        <v>372.1999999978144</v>
+        <v>372.1999999979103</v>
       </c>
       <c r="D9" t="n">
-        <v>372.1999969772155</v>
+        <v>372.1999979204685</v>
       </c>
       <c r="E9" t="n">
-        <v>372.2003099966561</v>
+        <v>372.2003100058331</v>
       </c>
       <c r="F9" t="n">
-        <v>372.1995261572474</v>
+        <v>372.1995261572141</v>
       </c>
       <c r="G9" t="n">
-        <v>372.2000375988441</v>
+        <v>372.1999753793981</v>
       </c>
       <c r="H9" t="n">
-        <v>372.20010872103</v>
+        <v>372.2000155588127</v>
       </c>
     </row>
     <row r="10">
@@ -683,25 +683,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>243.9999946672259</v>
+        <v>243.9999946672331</v>
       </c>
       <c r="C10" t="n">
-        <v>243.9999996288167</v>
+        <v>243.9999996289153</v>
       </c>
       <c r="D10" t="n">
-        <v>243.9999969706572</v>
+        <v>243.9999979213706</v>
       </c>
       <c r="E10" t="n">
-        <v>244.0002797293943</v>
+        <v>244.00027975158</v>
       </c>
       <c r="F10" t="n">
-        <v>243.9995289015644</v>
+        <v>243.9995289015309</v>
       </c>
       <c r="G10" t="n">
-        <v>244.0000375938795</v>
+        <v>243.9999753770998</v>
       </c>
       <c r="H10" t="n">
-        <v>244.0001086335317</v>
+        <v>244.0000157169696</v>
       </c>
     </row>
     <row r="11">
@@ -709,25 +709,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>243.499994667226</v>
+        <v>243.4999946672331</v>
       </c>
       <c r="C11" t="n">
-        <v>243.4999996288167</v>
+        <v>243.499999628915</v>
       </c>
       <c r="D11" t="n">
-        <v>243.4999969706574</v>
+        <v>243.4999979213704</v>
       </c>
       <c r="E11" t="n">
-        <v>243.5002795452183</v>
+        <v>243.5002795674378</v>
       </c>
       <c r="F11" t="n">
-        <v>243.4995289015645</v>
+        <v>243.4995289015309</v>
       </c>
       <c r="G11" t="n">
-        <v>243.5000375938795</v>
+        <v>243.4999753770998</v>
       </c>
       <c r="H11" t="n">
-        <v>243.5001086335316</v>
+        <v>243.5000157169694</v>
       </c>
     </row>
     <row r="12">
@@ -735,25 +735,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>149.7999946669777</v>
+        <v>149.7999946669848</v>
       </c>
       <c r="C12" t="n">
-        <v>149.799999628817</v>
+        <v>149.7999996289153</v>
       </c>
       <c r="D12" t="n">
-        <v>149.7999969706573</v>
+        <v>149.7999979213705</v>
       </c>
       <c r="E12" t="n">
-        <v>149.8002795914912</v>
+        <v>149.8002796137606</v>
       </c>
       <c r="F12" t="n">
-        <v>149.7995289015645</v>
+        <v>149.7995289015308</v>
       </c>
       <c r="G12" t="n">
-        <v>149.8000375938796</v>
+        <v>149.7999753770999</v>
       </c>
       <c r="H12" t="n">
-        <v>149.8001086335316</v>
+        <v>149.8000157169695</v>
       </c>
     </row>
     <row r="13">
@@ -761,25 +761,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144.3999946669777</v>
+        <v>144.3999946669849</v>
       </c>
       <c r="C13" t="n">
-        <v>144.399999628817</v>
+        <v>144.3999996289148</v>
       </c>
       <c r="D13" t="n">
-        <v>144.3999969706573</v>
+        <v>144.3999979213705</v>
       </c>
       <c r="E13" t="n">
-        <v>144.4002796451402</v>
+        <v>144.4002796674193</v>
       </c>
       <c r="F13" t="n">
-        <v>144.3995289015645</v>
+        <v>144.399528901531</v>
       </c>
       <c r="G13" t="n">
-        <v>144.4000375938795</v>
+        <v>144.3999753770997</v>
       </c>
       <c r="H13" t="n">
-        <v>144.4001086335318</v>
+        <v>144.4000157169697</v>
       </c>
     </row>
     <row r="14">
@@ -787,25 +787,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>81.99999466697767</v>
+        <v>81.99999466698479</v>
       </c>
       <c r="C14" t="n">
-        <v>81.99999993480301</v>
+        <v>81.99999993491186</v>
       </c>
       <c r="D14" t="n">
-        <v>81.99999697065738</v>
+        <v>81.99999792137046</v>
       </c>
       <c r="E14" t="n">
-        <v>82.00031075972106</v>
+        <v>82.0003107693079</v>
       </c>
       <c r="F14" t="n">
-        <v>81.99952890156447</v>
+        <v>81.99952890153068</v>
       </c>
       <c r="G14" t="n">
-        <v>82.00003759387957</v>
+        <v>81.99997537709972</v>
       </c>
       <c r="H14" t="n">
-        <v>82.00010863353157</v>
+        <v>82.00001571696971</v>
       </c>
     </row>
     <row r="15">
@@ -813,25 +813,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>79.99999466697768</v>
+        <v>79.99999466698478</v>
       </c>
       <c r="C15" t="n">
-        <v>79.99999993475592</v>
+        <v>79.99999993486477</v>
       </c>
       <c r="D15" t="n">
-        <v>79.99999697065732</v>
+        <v>79.99999792137044</v>
       </c>
       <c r="E15" t="n">
-        <v>80.00031075972103</v>
+        <v>80.00031076930782</v>
       </c>
       <c r="F15" t="n">
-        <v>79.99952890156447</v>
+        <v>79.99952890153072</v>
       </c>
       <c r="G15" t="n">
-        <v>80.00003759387954</v>
+        <v>79.99997537709967</v>
       </c>
       <c r="H15" t="n">
-        <v>80.00010863353168</v>
+        <v>80.00001571696967</v>
       </c>
     </row>
     <row r="16">
@@ -839,25 +839,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>47.89999467849186</v>
+        <v>47.8999946784994</v>
       </c>
       <c r="C16" t="n">
-        <v>47.89999999764746</v>
+        <v>47.89999999774374</v>
       </c>
       <c r="D16" t="n">
-        <v>47.89999697721591</v>
+        <v>47.89999792046877</v>
       </c>
       <c r="E16" t="n">
-        <v>47.90027925553685</v>
+        <v>47.90027927722707</v>
       </c>
       <c r="F16" t="n">
-        <v>47.89952615724731</v>
+        <v>47.89952615721374</v>
       </c>
       <c r="G16" t="n">
-        <v>47.90003759884404</v>
+        <v>47.89997537939793</v>
       </c>
       <c r="H16" t="n">
-        <v>47.90010872103</v>
+        <v>47.90001555881261</v>
       </c>
     </row>
     <row r="17">
@@ -865,25 +865,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>47.49999467849189</v>
+        <v>47.49999467849935</v>
       </c>
       <c r="C17" t="n">
-        <v>47.49999999764759</v>
+        <v>47.49999999774359</v>
       </c>
       <c r="D17" t="n">
-        <v>47.4999969772159</v>
+        <v>47.49999792046879</v>
       </c>
       <c r="E17" t="n">
-        <v>47.50027925577454</v>
+        <v>47.50027927746459</v>
       </c>
       <c r="F17" t="n">
-        <v>47.4995261572473</v>
+        <v>47.49952615721384</v>
       </c>
       <c r="G17" t="n">
-        <v>47.50003759884406</v>
+        <v>47.49997537939792</v>
       </c>
       <c r="H17" t="n">
-        <v>47.50010872102988</v>
+        <v>47.50001555881235</v>
       </c>
     </row>
     <row r="18">
@@ -900,16 +900,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0001569452146269859</v>
+        <v>0.0001569367361029531</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.486301858899313e-05</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>5.014000368962112e-05</v>
+        <v>5.105786004661357e-06</v>
       </c>
     </row>
     <row r="19">
@@ -926,16 +926,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0001568062956109949</v>
+        <v>0.0001567979069305695</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.486930259270323e-05</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.017576364453966e-05</v>
+        <v>5.045699075867513e-06</v>
       </c>
     </row>
     <row r="20">
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0001568058090927483</v>
+        <v>0.0001567976160357232</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.486945012557712e-05</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.017669525794633e-05</v>
+        <v>5.044949793283617e-06</v>
       </c>
     </row>
     <row r="21">
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0001569458965666664</v>
+        <v>0.00015693773367591</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.486302309082428e-05</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>5.0139993568992e-05</v>
+        <v>5.106502484841721e-06</v>
       </c>
     </row>
     <row r="22">
@@ -1004,16 +1004,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0001568077084539379</v>
+        <v>0.0001567993484023944</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.486934647172585e-05</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>5.017558036198666e-05</v>
+        <v>5.045503422866887e-06</v>
       </c>
     </row>
     <row r="23">
@@ -1030,16 +1030,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0001568501234454462</v>
+        <v>0.0001568419000349824</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.486735526857669e-05</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.016487970800084e-05</v>
+        <v>5.064196411378849e-06</v>
       </c>
     </row>
     <row r="24">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0001571549260020591</v>
+        <v>0.0001571470741500273</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.485293449658083e-05</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5.007592457366619e-05</v>
+        <v>5.202733980018015e-06</v>
       </c>
     </row>
     <row r="25">
@@ -1073,7 +1073,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0001404345481416227</v>
+        <v>0.0001404346698231753</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1082,16 +1082,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>3.572046343657173e-05</v>
+        <v>3.57106172915672e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0001038552597168829</v>
+        <v>0.0001038552335604458</v>
       </c>
       <c r="G25" t="n">
-        <v>1.48495805567392e-05</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>4.849391515724663e-05</v>
+        <v>4.699334236435675e-06</v>
       </c>
     </row>
     <row r="26">
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00015696774170688</v>
+        <v>0.0001569596073513394</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.486205793610136e-05</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.01327245845205e-05</v>
+        <v>5.116241815434882e-06</v>
       </c>
     </row>
     <row r="27">
@@ -1134,16 +1134,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0001568058090927483</v>
+        <v>0.0001567976160357232</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.486945012557712e-05</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>5.017669525794633e-05</v>
+        <v>5.044949793283617e-06</v>
       </c>
     </row>
     <row r="28">
@@ -1160,16 +1160,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0001568051029794837</v>
+        <v>0.0001567966208730178</v>
       </c>
       <c r="F28" t="n">
-        <v>58.79915165327967</v>
+        <v>58.79915165327749</v>
       </c>
       <c r="G28" t="n">
-        <v>1.486945064081641e-05</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>5.017575646572709e-05</v>
+        <v>5.044507677188809e-06</v>
       </c>
     </row>
     <row r="29">
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0001568076734123447</v>
+        <v>0.0001567991939340185</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.486936460757791e-05</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.017565817461286e-05</v>
+        <v>5.045820571197152e-06</v>
       </c>
     </row>
     <row r="30">
@@ -1212,16 +1212,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0001568058090927483</v>
+        <v>0.0001567976160357232</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.486945012557712e-05</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>5.017669525794633e-05</v>
+        <v>5.044949793283617e-06</v>
       </c>
     </row>
     <row r="31">
@@ -1238,16 +1238,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0001568062146341734</v>
+        <v>0.0001567980076680323</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.486937366037549e-05</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>5.017583193504323e-05</v>
+        <v>5.045277416829346e-06</v>
       </c>
     </row>
     <row r="32">
@@ -1264,16 +1264,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0001571994723557577</v>
+        <v>0.0001571918298148249</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.485046618979963e-05</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.00615477098581e-05</v>
+        <v>5.222388975989753e-06</v>
       </c>
     </row>
     <row r="33">
@@ -1281,25 +1281,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>693.7999946855546</v>
+        <v>693.7999946855625</v>
       </c>
       <c r="C33" t="n">
-        <v>693.8000000388885</v>
+        <v>693.8000000389759</v>
       </c>
       <c r="D33" t="n">
-        <v>693.7999969825655</v>
+        <v>693.7999979197368</v>
       </c>
       <c r="E33" t="n">
-        <v>693.8002789446296</v>
+        <v>693.8002789658473</v>
       </c>
       <c r="F33" t="n">
-        <v>693.7995239086792</v>
+        <v>693.7995239086461</v>
       </c>
       <c r="G33" t="n">
-        <v>693.8000376029069</v>
+        <v>693.7999753812803</v>
       </c>
       <c r="H33" t="n">
-        <v>693.8001087507598</v>
+        <v>693.8000154812775</v>
       </c>
     </row>
     <row r="34">
@@ -1307,25 +1307,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>685.2999946840837</v>
+        <v>685.2999946840915</v>
       </c>
       <c r="C34" t="n">
-        <v>685.3000000242796</v>
+        <v>685.3000000243663</v>
       </c>
       <c r="D34" t="n">
-        <v>685.2999969819314</v>
+        <v>685.2999979198889</v>
       </c>
       <c r="E34" t="n">
-        <v>685.3002790167817</v>
+        <v>685.3002790379885</v>
       </c>
       <c r="F34" t="n">
-        <v>685.299523943643</v>
+        <v>685.2995239436093</v>
       </c>
       <c r="G34" t="n">
-        <v>685.3000376028442</v>
+        <v>685.2999753812405</v>
       </c>
       <c r="H34" t="n">
-        <v>685.3001122270914</v>
+        <v>685.3000074896792</v>
       </c>
     </row>
     <row r="35">
@@ -1333,7 +1333,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32971461320936e-06</v>
+        <v>4.329904818593482e-06</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0003526633771935497</v>
+        <v>0.0003527140791753627</v>
       </c>
       <c r="F35" t="n">
-        <v>438.1038288005271</v>
+        <v>438.1038288002536</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00042384749859863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1359,25 +1359,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>110.9599906453408</v>
+        <v>110.9599906454073</v>
       </c>
       <c r="C36" t="n">
-        <v>110.9600009256764</v>
+        <v>110.9600009255465</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0001571893414629259</v>
+        <v>0.0001571815418933023</v>
       </c>
       <c r="F36" t="n">
-        <v>110.9592787919016</v>
+        <v>110.9592787919112</v>
       </c>
       <c r="G36" t="n">
-        <v>110.9600606468753</v>
+        <v>110.9599631548215</v>
       </c>
       <c r="H36" t="n">
-        <v>110.9601510248631</v>
+        <v>110.9600284048785</v>
       </c>
     </row>
     <row r="37">
@@ -1385,25 +1385,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>515.4999946845899</v>
+        <v>515.4999946845975</v>
       </c>
       <c r="C37" t="n">
-        <v>515.5000000477062</v>
+        <v>515.5000000477935</v>
       </c>
       <c r="D37" t="n">
-        <v>407.3210799763797</v>
+        <v>407.3210151673542</v>
       </c>
       <c r="E37" t="n">
-        <v>515.5002789995885</v>
+        <v>515.5002790208051</v>
       </c>
       <c r="F37" t="n">
-        <v>515.499523944884</v>
+        <v>515.4995239448499</v>
       </c>
       <c r="G37" t="n">
-        <v>515.5000376028419</v>
+        <v>515.4999753812845</v>
       </c>
       <c r="H37" t="n">
-        <v>515.5001089077637</v>
+        <v>515.5000152277739</v>
       </c>
     </row>
     <row r="38">
@@ -1411,25 +1411,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>507.9999946856234</v>
+        <v>507.9999946856311</v>
       </c>
       <c r="C38" t="n">
-        <v>508.0000000321559</v>
+        <v>508.0000000322433</v>
       </c>
       <c r="D38" t="n">
-        <v>507.9999969824816</v>
+        <v>507.9999979197489</v>
       </c>
       <c r="E38" t="n">
-        <v>508.0002789672438</v>
+        <v>508.0002789884588</v>
       </c>
       <c r="F38" t="n">
-        <v>507.9995239440904</v>
+        <v>507.9995239440569</v>
       </c>
       <c r="G38" t="n">
-        <v>508.0000376028431</v>
+        <v>507.999975381251</v>
       </c>
       <c r="H38" t="n">
-        <v>508.0001087745765</v>
+        <v>508.0000154648627</v>
       </c>
     </row>
     <row r="39">
@@ -1437,25 +1437,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>490.3999946852445</v>
+        <v>490.3999946852519</v>
       </c>
       <c r="C39" t="n">
-        <v>490.4000000326644</v>
+        <v>490.400000032752</v>
       </c>
       <c r="D39" t="n">
-        <v>490.3999969824822</v>
+        <v>490.3999979197484</v>
       </c>
       <c r="E39" t="n">
-        <v>490.4002789755194</v>
+        <v>490.4002789967244</v>
       </c>
       <c r="F39" t="n">
-        <v>490.3995239484179</v>
+        <v>490.3995239483835</v>
       </c>
       <c r="G39" t="n">
-        <v>490.4000376028429</v>
+        <v>490.3999753812511</v>
       </c>
       <c r="H39" t="n">
-        <v>490.4001087734167</v>
+        <v>490.4000154595857</v>
       </c>
     </row>
     <row r="40">
@@ -1463,25 +1463,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>197.8406208520849</v>
+        <v>197.8406208506714</v>
       </c>
       <c r="C40" t="n">
-        <v>424.6197427173879</v>
+        <v>424.6197427166567</v>
       </c>
       <c r="D40" t="n">
-        <v>7.625609315545055e-06</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>268.5124645224597</v>
+        <v>268.5124642843087</v>
       </c>
       <c r="F40" t="n">
-        <v>447.8995239470167</v>
+        <v>447.8995239469822</v>
       </c>
       <c r="G40" t="n">
-        <v>425.2196060061971</v>
+        <v>424.0806180201717</v>
       </c>
       <c r="H40" t="n">
-        <v>447.9001088026445</v>
+        <v>447.9000152725243</v>
       </c>
     </row>
     <row r="41">
@@ -1489,25 +1489,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>270.8999947994953</v>
+        <v>270.8999947995068</v>
       </c>
       <c r="C41" t="n">
-        <v>270.8999998428881</v>
+        <v>270.8999998429051</v>
       </c>
       <c r="D41" t="n">
-        <v>54.17999528057761</v>
+        <v>54.1799970302358</v>
       </c>
       <c r="E41" t="n">
-        <v>270.9002744058615</v>
+        <v>270.9002744204172</v>
       </c>
       <c r="F41" t="n">
-        <v>270.8994885815848</v>
+        <v>270.8994885815521</v>
       </c>
       <c r="G41" t="n">
-        <v>270.9000376662271</v>
+        <v>270.8999754108723</v>
       </c>
       <c r="H41" t="n">
-        <v>270.9001089894899</v>
+        <v>270.9000148070677</v>
       </c>
     </row>
     <row r="42">
@@ -1524,16 +1524,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0001380322919716361</v>
+        <v>0.0001380342883799105</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.485095256814361e-05</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>4.577096414060838e-05</v>
+        <v>6.113771358518789e-06</v>
       </c>
     </row>
     <row r="43">
@@ -1541,25 +1541,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>248.6999946662127</v>
+        <v>248.6999946662196</v>
       </c>
       <c r="C43" t="n">
-        <v>248.6999999302533</v>
+        <v>248.6999999303628</v>
       </c>
       <c r="D43" t="n">
-        <v>248.6999969702329</v>
+        <v>248.6999979214289</v>
       </c>
       <c r="E43" t="n">
-        <v>248.700279297036</v>
+        <v>248.7002793191857</v>
       </c>
       <c r="F43" t="n">
-        <v>248.6995290786158</v>
+        <v>248.6995290785823</v>
       </c>
       <c r="G43" t="n">
-        <v>248.7000375935591</v>
+        <v>248.6999753769515</v>
       </c>
       <c r="H43" t="n">
-        <v>248.700108626796</v>
+        <v>248.7000157287928</v>
       </c>
     </row>
     <row r="44">
@@ -1567,25 +1567,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>247.7999946662127</v>
+        <v>247.7999946662196</v>
       </c>
       <c r="C44" t="n">
-        <v>247.7999999300548</v>
+        <v>247.7999999301645</v>
       </c>
       <c r="D44" t="n">
-        <v>247.7999969702333</v>
+        <v>247.7999979214289</v>
       </c>
       <c r="E44" t="n">
-        <v>247.8002799384003</v>
+        <v>247.8002799607254</v>
       </c>
       <c r="F44" t="n">
-        <v>247.799529078616</v>
+        <v>247.7995290785824</v>
       </c>
       <c r="G44" t="n">
-        <v>247.8000375935592</v>
+        <v>247.7999753769514</v>
       </c>
       <c r="H44" t="n">
-        <v>247.8001086267959</v>
+        <v>247.8000157287927</v>
       </c>
     </row>
     <row r="45">
@@ -1593,25 +1593,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>247.7999946662127</v>
+        <v>247.7999946662198</v>
       </c>
       <c r="C45" t="n">
-        <v>247.7999999301896</v>
+        <v>247.7999999302992</v>
       </c>
       <c r="D45" t="n">
-        <v>247.7999969702332</v>
+        <v>247.7999979214289</v>
       </c>
       <c r="E45" t="n">
-        <v>247.8002797182722</v>
+        <v>247.800279740507</v>
       </c>
       <c r="F45" t="n">
-        <v>247.7995290786159</v>
+        <v>247.7995290785824</v>
       </c>
       <c r="G45" t="n">
-        <v>247.8000375935591</v>
+        <v>247.7999753769513</v>
       </c>
       <c r="H45" t="n">
-        <v>247.8001086267961</v>
+        <v>247.8000157287926</v>
       </c>
     </row>
     <row r="46">
@@ -1622,22 +1622,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>79.96321675658319</v>
+        <v>79.96321675589789</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0001571885649728151</v>
+        <v>0.0001571805777487032</v>
       </c>
       <c r="F46" t="n">
-        <v>244.8995238054108</v>
+        <v>244.8995238053766</v>
       </c>
       <c r="G46" t="n">
-        <v>94.35834801994153</v>
+        <v>95.50046774205404</v>
       </c>
       <c r="H46" t="n">
-        <v>244.9001089430423</v>
+        <v>244.9000150887297</v>
       </c>
     </row>
     <row r="47">
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0001694482493912139</v>
+        <v>0.0001694280520225986</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1.485147292784486e-05</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>5.006701932307327e-05</v>
+        <v>5.214833925620672e-06</v>
       </c>
     </row>
     <row r="48">
@@ -1680,16 +1680,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0001455994943944756</v>
+        <v>0.0001455868268101116</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1.485133366988074e-05</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>4.62638050326357e-05</v>
+        <v>6.391029098222174e-06</v>
       </c>
     </row>
     <row r="49">
@@ -1697,25 +1697,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>238.299994691239</v>
+        <v>238.2999946912473</v>
       </c>
       <c r="C49" t="n">
-        <v>238.3000000523396</v>
+        <v>238.3000000524223</v>
       </c>
       <c r="D49" t="n">
-        <v>238.2999969859669</v>
+        <v>238.2999979192737</v>
       </c>
       <c r="E49" t="n">
-        <v>238.3002787407702</v>
+        <v>238.3002787616823</v>
       </c>
       <c r="F49" t="n">
-        <v>238.2995224745466</v>
+        <v>238.2995224745129</v>
       </c>
       <c r="G49" t="n">
-        <v>238.3000376054962</v>
+        <v>238.2999753824811</v>
       </c>
       <c r="H49" t="n">
-        <v>238.3001088923925</v>
+        <v>238.3000160578972</v>
       </c>
     </row>
     <row r="50">
@@ -1732,16 +1732,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>47.2804331904433</v>
+        <v>47.28043323573601</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1.575127490502534e-05</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>236.400108835888</v>
+        <v>236.4000153084751</v>
       </c>
     </row>
     <row r="51">
@@ -1755,19 +1755,19 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>30.69998493265279</v>
+        <v>30.69999513158934</v>
       </c>
       <c r="E51" t="n">
-        <v>30.7003764704697</v>
+        <v>30.70037655310389</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>30.70006051451253</v>
+        <v>30.6999634156972</v>
       </c>
       <c r="H51" t="n">
-        <v>30.93380847435462</v>
+        <v>30.93938416599776</v>
       </c>
     </row>
     <row r="52">
@@ -1781,19 +1781,19 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>29.79999562681258</v>
+        <v>29.79999769553843</v>
       </c>
       <c r="E52" t="n">
-        <v>0.000133374807194021</v>
+        <v>0.0001333710134157173</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1.57536261458261e-05</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>4.63022653049607e-05</v>
+        <v>6.450560391637783e-06</v>
       </c>
     </row>
     <row r="53">
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0003364338856889853</v>
+        <v>0.0003364815403126038</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1.485686272644864e-05</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>5.009952996514547e-05</v>
+        <v>5.165313564292708e-06</v>
       </c>
     </row>
     <row r="54">
@@ -1836,16 +1836,16 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0001476057779268181</v>
+        <v>0.0001475813065295937</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1.485989447134656e-05</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>5.010035838882198e-05</v>
+        <v>5.122051228966172e-06</v>
       </c>
     </row>
     <row r="55">
@@ -1862,16 +1862,16 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0001559743266012737</v>
+        <v>0.0001559648946092454</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1.486244719476625e-05</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>5.012661835217818e-05</v>
+        <v>5.112575300387594e-06</v>
       </c>
     </row>
     <row r="56">
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0001362710975167336</v>
+        <v>0.0001362625313749445</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1.485838599454775e-05</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>5.010683150815999e-05</v>
+        <v>5.155722504687657e-06</v>
       </c>
     </row>
     <row r="57">
@@ -1914,16 +1914,16 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0001541389838492047</v>
+        <v>0.0001541302370530532</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1.485140325322772e-05</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>5.005127949044709e-05</v>
+        <v>5.211650262258071e-06</v>
       </c>
     </row>
     <row r="58">
@@ -1940,16 +1940,16 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0001557091413827005</v>
+        <v>0.0001556987123281979</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1.485218680182686e-05</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>4.626135245058872e-05</v>
+        <v>6.397806590083459e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1966,16 +1966,16 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0001571376718038707</v>
+        <v>0.0001571297990528539</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1.485375796117456e-05</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>5.008289605792821e-05</v>
+        <v>5.193673401087063e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1992,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0001555485610742892</v>
+        <v>0.0001555382777174218</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1.486171400191771e-05</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>5.012079435082713e-05</v>
+        <v>5.117441455462656e-06</v>
       </c>
     </row>
     <row r="61">
@@ -2018,16 +2018,16 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0001555713561928937</v>
+        <v>0.0001555613364987956</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1.486180274508913e-05</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.012089457356828e-05</v>
+        <v>5.11540366847416e-06</v>
       </c>
     </row>
     <row r="62">
@@ -2044,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.000155554134488073</v>
+        <v>0.0001555438855670745</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1.486180274508913e-05</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>5.012261962849693e-05</v>
+        <v>5.115039468069673e-06</v>
       </c>
     </row>
     <row r="63">
@@ -2070,16 +2070,16 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0001555712704546312</v>
+        <v>0.0001555613438627513</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1.486179463780082e-05</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>5.012104746580281e-05</v>
+        <v>5.11559104159238e-06</v>
       </c>
     </row>
     <row r="64">
@@ -2096,16 +2096,16 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0001571749994797548</v>
+        <v>0.0001571672785829234</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1.485188071072401e-05</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>5.007054974105553e-05</v>
+        <v>5.212297991452069e-06</v>
       </c>
     </row>
     <row r="65">
@@ -2122,16 +2122,16 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0001571829416135434</v>
+        <v>0.0001571748977198135</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1.485148519857085e-05</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>5.006717086829776e-05</v>
+        <v>5.214381736671472e-06</v>
       </c>
     </row>
     <row r="66">
@@ -2148,16 +2148,16 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.000157181747160493</v>
+        <v>0.000157173874635704</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1.485154365953553e-05</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>5.006841096498859e-05</v>
+        <v>5.214119224557281e-06</v>
       </c>
     </row>
     <row r="67">
@@ -2174,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0001568113815600238</v>
+        <v>0.0001568032933666388</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1.486912344409785e-05</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>5.017507902119934e-05</v>
+        <v>5.046707936761009e-06</v>
       </c>
     </row>
     <row r="68">
@@ -2200,16 +2200,16 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0001571321903130364</v>
+        <v>0.000157124015901351</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1.485402202825998e-05</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>5.008414986097023e-05</v>
+        <v>5.191680364152963e-06</v>
       </c>
     </row>
     <row r="69">
@@ -2226,16 +2226,16 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0001571204387224266</v>
+        <v>0.0001571124881480141</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1.485460555083747e-05</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>5.008684132174911e-05</v>
+        <v>5.185573499197542e-06</v>
       </c>
     </row>
     <row r="70">
@@ -2252,16 +2252,16 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0001562062747059394</v>
+        <v>0.0001562000590294164</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1.48546469569477e-05</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>5.008024914592727e-05</v>
+        <v>5.183967717002032e-06</v>
       </c>
     </row>
     <row r="71">
@@ -2278,16 +2278,16 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0001556651959773339</v>
+        <v>0.0001556571340220031</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1.485466261693558e-05</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>5.008466222740915e-05</v>
+        <v>5.181834944547261e-06</v>
       </c>
     </row>
     <row r="72">
@@ -2304,16 +2304,16 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0001571205238387955</v>
+        <v>0.0001571125371954013</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1.485465235181054e-05</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>5.00866180554469e-05</v>
+        <v>5.18522411599024e-06</v>
       </c>
     </row>
     <row r="73">
@@ -2330,16 +2330,16 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0001571203762112266</v>
+        <v>0.0001571125129116472</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1.485459577131375e-05</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>5.008619353935145e-05</v>
+        <v>5.186203930884659e-06</v>
       </c>
     </row>
     <row r="74">
@@ -2356,16 +2356,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0001571320259153187</v>
+        <v>0.0001571240609640912</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1.485401915618515e-05</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>5.00841888764903e-05</v>
+        <v>5.192692059347904e-06</v>
       </c>
     </row>
     <row r="75">
@@ -2382,16 +2382,16 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0001571376712855643</v>
+        <v>0.0001571298035127558</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1.485374622258694e-05</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>5.008138421043792e-05</v>
+        <v>5.194663730584437e-06</v>
       </c>
     </row>
     <row r="76">
@@ -2408,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0001571262800749696</v>
+        <v>0.0001571183005235555</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1.485423802905186e-05</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>5.008609842837786e-05</v>
+        <v>5.188626128455511e-06</v>
       </c>
     </row>
     <row r="77">
@@ -2434,16 +2434,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0001542528634906872</v>
+        <v>0.0001542440560379695</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1.485498316525658e-05</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>5.007973588534118e-05</v>
+        <v>5.178977076468042e-06</v>
       </c>
     </row>
   </sheetData>
